--- a/target/test-classes/Data/Load_config_v2.xlsx
+++ b/target/test-classes/Data/Load_config_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (2)\Demoframework\src\test\java\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FrameworkFiles\Demoframework\src\test\java\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776B5EBF-C9CB-447C-847E-D5B2F640A9E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B6D947-5B01-4C36-B3B2-9910CA0DFE0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{76C0F97D-AECC-4EBA-A18E-D3312C027FCE}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>Externalize</t>
   </si>
   <si>
-    <t>classpath:Features/TDG_UKAF_Chainning.feature@Perf</t>
-  </si>
-  <si>
     <t>LoadMethod1</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Test1</t>
+  </si>
+  <si>
+    <t>classpath:KarateFeatures/TDG_UKAF_Chainning.feature@Perf</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -715,45 +715,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -764,22 +764,22 @@
         <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" thickBot="1">
@@ -837,59 +837,59 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Data/Load_config_v2.xlsx
+++ b/target/test-classes/Data/Load_config_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FrameworkFiles\Demoframework\src\test\java\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B6D947-5B01-4C36-B3B2-9910CA0DFE0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF58E3D9-A78C-4E83-AD40-D890EB0D5B81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{76C0F97D-AECC-4EBA-A18E-D3312C027FCE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>class</t>
   </si>
@@ -43,12 +43,6 @@
     <t>ServiceTest</t>
   </si>
   <si>
-    <t>TDG_UKAF_Externalize</t>
-  </si>
-  <si>
-    <t>Externalize</t>
-  </si>
-  <si>
     <t>LoadMethod1</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>10000</t>
   </si>
   <si>
-    <t>2,2</t>
-  </si>
-  <si>
     <t>5,1</t>
   </si>
   <si>
@@ -125,6 +116,18 @@
   </si>
   <si>
     <t>classpath:KarateFeatures/TDG_UKAF_Chainning.feature@Perf</t>
+  </si>
+  <si>
+    <t>TDG_UKAF_Feeder</t>
+  </si>
+  <si>
+    <t>classpath:KarateFeatures/TDG_UKAF_Input_Data_From_Feeder.feature</t>
+  </si>
+  <si>
+    <t>Feeder</t>
+  </si>
+  <si>
+    <t>5,0</t>
   </si>
 </sst>
 </file>
@@ -689,15 +692,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF44F5BF-8F33-430A-BC67-1E9814E2AF0E}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.296875" customWidth="1"/>
-    <col min="3" max="3" width="35.09765625" customWidth="1"/>
+    <col min="3" max="3" width="60.59765625" customWidth="1"/>
     <col min="4" max="4" width="27.09765625" customWidth="1"/>
     <col min="5" max="5" width="20.09765625" customWidth="1"/>
     <col min="6" max="6" width="21.296875" customWidth="1"/>
@@ -715,71 +718,71 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.4" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="C3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" thickBot="1">
@@ -837,59 +840,59 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Data/Load_config_v2.xlsx
+++ b/target/test-classes/Data/Load_config_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FrameworkFiles\Demoframework\src\test\java\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF58E3D9-A78C-4E83-AD40-D890EB0D5B81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFFE2F6-3ED3-4046-A99E-6D9A5098A237}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{76C0F97D-AECC-4EBA-A18E-D3312C027FCE}"/>
   </bookViews>
@@ -693,7 +693,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -744,7 +744,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>27</v>
